--- a/programas/Projects/6_regresionLineal/6_regresionLineal_v2/carteraRegre.xlsx
+++ b/programas/Projects/6_regresionLineal/6_regresionLineal_v2/carteraRegre.xlsx
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>44819</v>

--- a/programas/Projects/6_regresionLineal/6_regresionLineal_v2/carteraRegre.xlsx
+++ b/programas/Projects/6_regresionLineal/6_regresionLineal_v2/carteraRegre.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>44818.45142966435</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44819</v>
+        <v>44818.45142966435</v>
       </c>
       <c r="E13" t="n">
-        <v>341.3999938964844</v>
+        <v>347.8900146484375</v>
       </c>
       <c r="F13" t="n">
-        <v>29.44398566931341</v>
+        <v>22.95779267354226</v>
       </c>
       <c r="G13" t="n">
-        <v>17.38281898508981</v>
+        <v>17.01469779373598</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44819</v>
+        <v>44819.4514259375</v>
       </c>
       <c r="E15" t="n">
         <v>458.8500061035156</v>
@@ -848,7 +848,7 @@
         <v>24.84409409872853</v>
       </c>
       <c r="G15" t="n">
-        <v>20.81433086706722</v>
+        <v>20.81432653485675</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>44833</v>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>44836.55011158565</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>42957</v>
+        <v>42877</v>
       </c>
       <c r="E40" t="n">
-        <v>5.366668224334717</v>
+        <v>5.380216121673584</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5445112942091788</v>
+        <v>0.3441259559554677</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2268047010661769</v>
+        <v>0.281193487983473</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -1548,26 +1548,215 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NTGY.MC</t>
+          <t>HSY</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>42986</v>
+        <v>44876</v>
       </c>
       <c r="E41" t="n">
-        <v>19.97999954223633</v>
+        <v>218.8800048828125</v>
       </c>
       <c r="F41" t="n">
-        <v>1.765556232414056</v>
+        <v>12.57291039855039</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4523844031813681</v>
+        <v>12.48933167104752</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>LW</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>44879</v>
+      </c>
+      <c r="E42" t="n">
+        <v>80.11000061035156</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5.598703617306811</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4.635273517063085</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>USDJPY=X</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>44880.37707495371</v>
+      </c>
+      <c r="E43" t="n">
+        <v>140.1150054931641</v>
+      </c>
+      <c r="F43" t="n">
+        <v>9.409537886039715</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5.311814536382395</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>JPY=X</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>44880.37707495371</v>
+      </c>
+      <c r="E44" t="n">
+        <v>140.1150054931641</v>
+      </c>
+      <c r="F44" t="n">
+        <v>9.409537886039715</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5.311814536382395</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CORN</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>44880.37707495371</v>
+      </c>
+      <c r="E45" t="n">
+        <v>26.21999931335449</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8651912166844689</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6499477235505791</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>corn</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>44875</v>
+      </c>
+      <c r="E46" t="n">
+        <v>26.20000076293945</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9771365269224859</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.6789668826796372</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>44879</v>
+      </c>
+      <c r="E47" t="n">
+        <v>221.1199951171875</v>
+      </c>
+      <c r="F47" t="n">
+        <v>21.45384657049897</v>
+      </c>
+      <c r="G47" t="n">
+        <v>16.85053452288301</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>EURJPY=X</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>44899.47380636574</v>
+      </c>
+      <c r="E48" t="n">
+        <v>142.2839965820312</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3.604931650593045</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.282697989962816</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
